--- a/db/db-challenge2/データベース定義書 .xlsx
+++ b/db/db-challenge2/データベース定義書 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="266" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{223A0B8B-60AB-45EA-B414-64BE5471373B}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DC4A3DF-6161-43C2-95F6-6E28A34C2EBE}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
     <t>ファイル送信許可フラグ</t>
   </si>
   <si>
-    <t>is_file_permit</t>
+    <t>is_file_sendable</t>
   </si>
   <si>
     <t>1:ファイル送信不可</t>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>投稿者id</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
   <si>
     <t>メッセージ内容</t>
@@ -801,9 +804,6 @@
   </si>
   <si>
     <t>どのユーザーがどのルームに所属しているかに関する情報を保持する中間テーブル</t>
-  </si>
-  <si>
-    <t>user_id</t>
   </si>
   <si>
     <t>PK,FK</t>
@@ -30466,7 +30466,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="D13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -30769,7 +30769,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="C14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
@@ -31184,8 +31184,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:J12"/>
+      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31598,8 +31598,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:J12"/>
+      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31768,7 +31768,7 @@
         <v>99</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -31793,10 +31793,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>58</v>
@@ -31819,10 +31819,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -31873,7 +31873,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>74</v>
@@ -32011,8 +32011,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="C14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
@@ -32037,7 +32037,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32054,7 +32054,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32121,7 +32121,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -32151,10 +32151,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32235,10 +32235,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -32261,10 +32261,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>75</v>
@@ -32283,10 +32283,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>71</v>
@@ -32303,7 +32303,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32449,8 +32449,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -32475,7 +32475,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32492,7 +32492,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32562,7 +32562,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>

--- a/db/db-challenge2/データベース定義書 .xlsx
+++ b/db/db-challenge2/データベース定義書 .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23416"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8DC4A3DF-6161-43C2-95F6-6E28A34C2EBE}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A31A6EE-2D36-46EB-B3D6-4354D5909D71}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="125">
   <si>
     <t>改定履歴</t>
   </si>
@@ -719,6 +719,15 @@
     <t>1:ファイル送信不可</t>
   </si>
   <si>
+    <t>ダイレクトチャットフラグ</t>
+  </si>
+  <si>
+    <t>is_direct_chat</t>
+  </si>
+  <si>
+    <t>1:ダイレクトチャット</t>
+  </si>
+  <si>
     <t>作成者id</t>
   </si>
   <si>
@@ -31183,16 +31192,16 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="25"/>
     <col min="2" max="2" width="3.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="25" customWidth="1"/>
     <col min="4" max="4" width="25" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="25" customWidth="1"/>
     <col min="6" max="6" width="5.28515625" style="25" customWidth="1"/>
@@ -31200,7 +31209,7 @@
     <col min="8" max="8" width="10.28515625" style="25" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="25"/>
     <col min="10" max="10" width="24.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="25" customWidth="1"/>
+    <col min="11" max="11" width="22" style="25" customWidth="1"/>
     <col min="12" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
@@ -31403,10 +31412,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>71</v>
@@ -31423,7 +31432,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="15" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31433,22 +31442,28 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20"/>
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
       <c r="H10" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="26"/>
@@ -31457,24 +31472,22 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="16">
-        <v>11</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="26"/>
@@ -31483,25 +31496,23 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="20" t="s">
-        <v>79</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11</v>
+      </c>
+      <c r="G12" s="20"/>
       <c r="H12" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31511,24 +31522,26 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="17">
-        <v>11</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="18" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="26"/>
@@ -31536,12 +31549,22 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="17">
+        <v>11</v>
+      </c>
       <c r="G14" s="20"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -31623,7 +31646,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -31640,7 +31663,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -31707,7 +31730,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -31740,7 +31763,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -31753,7 +31776,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31765,10 +31788,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -31781,7 +31804,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -31793,10 +31816,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>58</v>
@@ -31819,10 +31842,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -31873,7 +31896,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>74</v>
@@ -31925,10 +31948,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>52</v>
@@ -32011,7 +32034,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="C14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14:J14"/>
     </sheetView>
@@ -32037,7 +32060,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32054,7 +32077,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32121,7 +32144,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>51</v>
@@ -32151,10 +32174,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32167,7 +32190,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32182,7 +32205,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>52</v>
@@ -32195,7 +32218,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
@@ -32207,10 +32230,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>52</v>
@@ -32223,7 +32246,7 @@
         <v>53</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -32235,10 +32258,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>58</v>
@@ -32261,10 +32284,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>75</v>
@@ -32283,10 +32306,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>71</v>
@@ -32303,7 +32326,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32395,10 +32418,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>52</v>
@@ -32475,7 +32498,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32492,7 +32515,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32562,7 +32585,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>52</v>
@@ -32575,7 +32598,7 @@
         <v>53</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -32590,7 +32613,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>52</v>
@@ -32603,7 +32626,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32615,10 +32638,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>75</v>
